--- a/data/trans_dic/P32-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P32-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15,63%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>1,34; 8,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>10,16; 22,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>1,68; 9,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>0,0; 9,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>3,58; 15,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>1,52; 6,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>8,89; 17,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>1,25; 6,35</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>3,09; 9,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>5,74; 12,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0,38; 3,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,37; 4,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>0,0; 8,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>0,66; 6,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>2,69; 7,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>4,68; 9,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,31; 2,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,34; 3,59</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,55%</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 3,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>0,47; 4,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,84; 5,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>6,39; 15,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1029,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>0,67; 5,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,58; 3,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,6; 3,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>4,89; 11,24</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>2,33; 8,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>10,53; 18,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>1,97; 7,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>2,17; 9,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>0,89; 9,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>1,52; 9,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>0,0; 5,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>2,35; 6,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>7,95; 13,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,72; 5,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>1,51; 5,93</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,73%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,84; 7,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>4,6; 15,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>1,03; 8,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0,0; 17,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>0,0; 9,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,27 +1319,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0,0; 23,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>0,63; 7,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>3,78; 11,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>0,72; 6,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>0,55; 6,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>1,31; 7,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,98; 5,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>3,29; 10,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>0,0; 5,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>0,0; 5,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>0,0; 5,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>0,56; 6,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,94; 4,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>1,05; 4,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,97; 4,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,62; 7,41</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,28%</t>
         </is>
       </c>
     </row>
@@ -1564,22 +1564,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0,63; 4,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>2,95; 8,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>6,58; 13,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>9,58; 19,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1589,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>0,46; 4,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>4,43; 10,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>1,39; 9,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,42; 2,88</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,36; 5,76</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>6,67; 11,23</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>5,09; 13,03</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,72; 3,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>2,5; 6,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,72; 5,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,96; 4,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,0; 3,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>0,49; 4,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,42; 3,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>0,69; 8,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,7; 2,43</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,22; 5,33</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,61; 3,87</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,35; 4,85</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,08; 3,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,61; 8,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,32; 6,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,93; 7,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,8; 2,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,31; 3,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,39; 4,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,7; 4,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,8; 2,94</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,4; 6,01</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,84; 5,34</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,94; 5,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,07; 31,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,56</t>
+          <t>1,74; 10,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 15,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,55; 22,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,35</t>
+          <t>1,27; 7,24</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,73</t>
+          <t>0,35; 4,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,88</t>
+          <t>0,0; 2,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,59</t>
+          <t>0,34; 3,74</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>7,61%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 15,42</t>
+          <t>6,35; 15,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,76</t>
+          <t>0,66; 5,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,24</t>
+          <t>4,93; 11,41</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 18,06</t>
+          <t>2,04; 8,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 9,08</t>
+          <t>2,02; 8,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 9,11</t>
+          <t>0,0; 6,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 13,73</t>
+          <t>1,69; 6,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,93</t>
+          <t>1,52; 6,06</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,99</t>
+          <t>0,0; 24,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,62</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 10,11</t>
+          <t>3,2; 9,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,72</t>
+          <t>0,56; 6,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 7,41</t>
+          <t>2,63; 7,43</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,58; 19,11</t>
+          <t>9,46; 19,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 9,14</t>
+          <t>0,68; 8,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,09; 13,03</t>
+          <t>3,07; 12,48</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,58</t>
+          <t>0,97; 4,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 8,12</t>
+          <t>0,71; 7,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,85</t>
+          <t>1,34; 4,84</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,55</t>
+          <t>4,95; 7,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,17</t>
+          <t>1,19; 3,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,94; 5,92</t>
+          <t>3,54; 5,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,37 +725,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,0</t>
+          <t>1,3; 7,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,07; 31,5</t>
+          <t>18,52; 31,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 22,27</t>
+          <t>10,58; 22,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 10,6</t>
+          <t>1,77; 10,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,34</t>
+          <t>0,0; 10,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 15,38</t>
+          <t>1,7; 14,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 15,07</t>
+          <t>3,64; 15,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,29 +765,29 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,59</t>
+          <t>1,7; 6,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,55; 22,76</t>
+          <t>12,93; 22,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 17,61</t>
+          <t>9,17; 17,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 7,24</t>
+          <t>1,19; 7,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,01</t>
+          <t>3,14; 9,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 12,23</t>
+          <t>5,86; 12,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,56</t>
+          <t>0,38; 3,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,96</t>
+          <t>0,35; 4,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,03</t>
+          <t>0,0; 6,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,58</t>
+          <t>0,66; 6,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>0,0; 6,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,97</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,8</t>
+          <t>2,65; 7,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,86</t>
+          <t>4,55; 9,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,95</t>
+          <t>0,31; 3,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,74</t>
+          <t>0,35; 3,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,05</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,63</t>
+          <t>0,51; 4,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,0</t>
+          <t>0,91; 5,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 15,58</t>
+          <t>6,45; 15,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,03</t>
+          <t>0,0; 3,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,82</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,72</t>
+          <t>0,67; 6,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,51</t>
+          <t>0,58; 3,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,4</t>
+          <t>0,56; 3,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 11,41</t>
+          <t>5,15; 11,45</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 8,24</t>
+          <t>2,31; 8,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,88</t>
+          <t>1,63; 9,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 7,66</t>
+          <t>1,85; 7,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,77</t>
+          <t>2,14; 9,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,14</t>
+          <t>0,9; 9,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,9</t>
+          <t>0,0; 7,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,79</t>
+          <t>0,0; 6,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,75</t>
+          <t>2,56; 6,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,68</t>
+          <t>1,74; 6,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,63</t>
+          <t>1,65; 5,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,06</t>
+          <t>1,44; 5,5</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1285,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,43</t>
+          <t>0,84; 7,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 15,03</t>
+          <t>4,25; 14,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 8,41</t>
+          <t>1,02; 7,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,12 +1305,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,4</t>
+          <t>0,0; 17,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,65</t>
+          <t>0,0; 8,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,34 +1320,34 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,81</t>
+          <t>0,0; 27,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,4</t>
+          <t>0,65; 7,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 11,2</t>
+          <t>3,6; 11,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,68</t>
+          <t>0,73; 6,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,7</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,44</t>
+          <t>0,53; 5,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 7,27</t>
+          <t>1,56; 7,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,69</t>
+          <t>0,99; 5,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,9</t>
+          <t>3,24; 9,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,34</t>
+          <t>0,0; 5,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,0</t>
+          <t>0,0; 5,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,53</t>
+          <t>0,0; 5,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,66</t>
+          <t>0,56; 6,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,76</t>
+          <t>0,91; 4,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,84</t>
+          <t>1,1; 5,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,34</t>
+          <t>0,98; 4,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,43</t>
+          <t>2,71; 7,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,22 +1565,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 4,47</t>
+          <t>0,65; 3,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,05</t>
+          <t>2,93; 7,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 13,45</t>
+          <t>6,89; 13,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,46; 19,31</t>
+          <t>9,34; 19,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1590,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,18</t>
+          <t>0,45; 3,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,43; 10,64</t>
+          <t>4,31; 10,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 8,4</t>
+          <t>0,85; 9,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,88</t>
+          <t>0,42; 2,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,76</t>
+          <t>2,36; 5,43</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,67; 11,23</t>
+          <t>6,41; 11,37</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 12,48</t>
+          <t>3,34; 12,92</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,32</t>
+          <t>0,72; 3,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,95</t>
+          <t>2,35; 6,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,19</t>
+          <t>1,8; 5,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,61</t>
+          <t>1,01; 4,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,25</t>
+          <t>0,0; 2,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,78</t>
+          <t>0,49; 4,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,91</t>
+          <t>0,42; 3,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,93</t>
+          <t>0,73; 8,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,43</t>
+          <t>0,66; 2,55</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,33</t>
+          <t>2,21; 5,36</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,87</t>
+          <t>1,56; 4,04</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,84</t>
+          <t>1,31; 4,44</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,61</t>
+          <t>2,08; 3,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,02</t>
+          <t>5,63; 7,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,38</t>
+          <t>4,31; 6,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,75</t>
+          <t>4,85; 7,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,49</t>
+          <t>0,78; 2,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,41</t>
+          <t>1,36; 3,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,53</t>
+          <t>2,36; 4,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,7</t>
+          <t>1,19; 3,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,94</t>
+          <t>1,81; 2,96</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,01</t>
+          <t>4,42; 6,13</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,34</t>
+          <t>3,78; 5,39</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,77</t>
+          <t>3,58; 5,76</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que piensa que debería beber menos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5691</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>42655</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27928</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8581</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6686</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8357</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7618</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>49340</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36285</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8581</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1907; 11545</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32466; 55601</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18905; 39470</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3177; 19501</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7442</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1844; 16008</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3791; 16260</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1061</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3744; 14216</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>36712; 63169</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25939; 49429</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3206; 19286</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13119</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26960</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3494</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3959</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14100</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30919</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4756</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7181; 20687</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18182; 39737</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1017; 9840</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>885; 12170</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5025</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>993; 9607</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6309</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3064</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7986; 23169</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20981; 44021</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1131; 11255</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1279; 11944</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18709</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2247</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4851</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5456</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20957</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4514</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1027; 9826</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1857; 10829</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11941; 29484</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4925</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4206</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>606; 5433</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4999</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1882; 10631</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1821; 11074</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14193; 31554</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11115</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7944</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9779</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8330</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4741</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2536</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15857</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9783</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12315</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9233</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5501; 20458</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3094; 18170</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4323; 17679</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3815; 16175</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1180; 11778</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6446</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9532</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3306</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9436; 25740</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4839; 18575</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6339; 21664</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4352; 16647</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11189</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2857</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1658</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>12076</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2857</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>812; 7044</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5447; 18378</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>922; 6877</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1267</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8143</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4513</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1746</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2375</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>933; 11247</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6564; 20179</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>937; 7752</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2437</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4670</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6394</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4784</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9662</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2377</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6647</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7345</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6670</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>12039</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1031; 11431</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2875; 14176</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1875; 10675</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5346; 16256</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6117</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4803</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6113</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>540; 6148</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2778; 13249</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3049; 14893</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2868; 12592</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7099; 19190</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19576</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>37628</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>41876</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3118</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>18398</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>14591</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>22694</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>56027</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>56467</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1881; 11463</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>11653; 29421</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>26224; 51299</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>28774; 59851</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>972; 8451</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>11169; 27949</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3393; 36129</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1769; 11233</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>14436; 33253</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>41016; 72703</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>23688; 91528</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>8012</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>19060</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>14089</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>6407</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>4280</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>3342</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>9967</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>23340</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>18258</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>9750</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3550; 16037</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>10640; 29600</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>8203; 23308</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2790; 12839</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6811</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1061; 10766</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1113; 10322</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>734; 8419</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>4811; 18691</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>14793; 35830</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>11256; 29124</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>4946; 16739</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>51489</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>137642</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>105170</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>97735</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>13239</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>22706</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>37300</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>24487</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>64728</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>160348</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>142471</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>122222</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>39191; 69535</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>114844; 161660</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>86191; 129082</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>76577; 120635</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>6959; 22689</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>14266; 35088</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>27059; 51661</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>12219; 37688</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>50238; 82102</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>136494; 189385</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>118964; 169567</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>93260; 150209</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>